--- a/QuanRadar/bin/测试链接.xlsx
+++ b/QuanRadar/bin/测试链接.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>话题圈-个人主页链接统计</t>
   </si>
@@ -33,15 +33,6 @@
     <t>链接值</t>
   </si>
   <si>
-    <t>eg</t>
-  </si>
-  <si>
-    <t>鱼骨</t>
-  </si>
-  <si>
-    <t>101_2ea76d784d9278f4a550cb3f1059f397</t>
-  </si>
-  <si>
     <t>Franxx</t>
   </si>
   <si>
@@ -52,6 +43,14 @@
   </si>
   <si>
     <t>2_o9GiTuCSz6w4uJRkPUvZeSNo-2_U</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>101_2ea76d784d9278f4a550cb3f1059f397</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼骨</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -175,9 +174,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -514,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y184"/>
+  <dimension ref="A1:Y183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -534,17 +530,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="16.5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -563,15 +559,15 @@
       <c r="Y1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="16.5">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -613,14 +609,14 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:25" ht="16.5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -637,14 +633,14 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:25" ht="16.5">
-      <c r="A5" s="2">
-        <v>1</v>
+      <c r="A5" s="4">
+        <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -661,8 +657,8 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:25" ht="16.5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -679,8 +675,8 @@
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:25" ht="16.5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -696,9 +692,9 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:25" ht="16.5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
+    <row r="8" spans="1:25" ht="24.75" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -715,8 +711,8 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:25" ht="24.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -733,8 +729,8 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:25" ht="24.75" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -751,8 +747,8 @@
       <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:25" ht="24.75" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -769,8 +765,8 @@
       <c r="P11" s="2"/>
     </row>
     <row r="12" spans="1:25" ht="24.75" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -788,7 +784,7 @@
     </row>
     <row r="13" spans="1:25" ht="24.75" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -805,8 +801,8 @@
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:25" ht="24.75" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -823,8 +819,8 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:25" ht="24.75" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -840,9 +836,9 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:25" ht="24.75" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
+    <row r="16" spans="1:25" ht="16.5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -859,8 +855,8 @@
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" ht="16.5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -877,8 +873,8 @@
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:16" ht="16.5">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -895,8 +891,8 @@
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:16" ht="16.5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -913,7 +909,7 @@
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16" ht="16.5">
-      <c r="A20" s="2"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="7"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -931,8 +927,8 @@
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="1:16" ht="16.5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -967,8 +963,8 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" ht="16.5">
-      <c r="A23" s="2"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -985,8 +981,8 @@
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" ht="16.5">
-      <c r="A24" s="5"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1003,7 +999,7 @@
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="1:16" ht="16.5">
-      <c r="A25" s="2"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="8"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1021,8 +1017,8 @@
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" ht="16.5">
-      <c r="A26" s="5"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1039,8 +1035,8 @@
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="1:16" ht="16.5">
-      <c r="A27" s="2"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1057,8 +1053,8 @@
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="1:16" ht="16.5">
-      <c r="A28" s="5"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1075,8 +1071,8 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:16" ht="16.5">
-      <c r="A29" s="2"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1093,8 +1089,8 @@
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="1:16" ht="16.5">
-      <c r="A30" s="5"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1112,7 +1108,7 @@
     </row>
     <row r="31" spans="1:16" ht="16.5">
       <c r="A31" s="2"/>
-      <c r="B31" s="8"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1129,7 +1125,7 @@
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" ht="16.5">
-      <c r="A32" s="2"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="8"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1147,7 +1143,7 @@
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="1:16" ht="16.5">
-      <c r="A33" s="5"/>
+      <c r="A33" s="2"/>
       <c r="B33" s="9"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1165,8 +1161,8 @@
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="1:16" ht="16.5">
-      <c r="A34" s="2"/>
-      <c r="B34" s="10"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1183,7 +1179,7 @@
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="1:16" ht="16.5">
-      <c r="A35" s="5"/>
+      <c r="A35" s="2"/>
       <c r="B35" s="8"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1201,8 +1197,8 @@
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="1:16" ht="16.5">
-      <c r="A36" s="2"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1219,8 +1215,8 @@
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="1:16" ht="16.5">
-      <c r="A37" s="5"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1237,8 +1233,8 @@
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="1:16" ht="16.5">
-      <c r="A38" s="2"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1255,8 +1251,8 @@
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="1:16" ht="16.5">
-      <c r="A39" s="5"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1274,7 +1270,7 @@
     </row>
     <row r="40" spans="1:16" ht="16.5">
       <c r="A40" s="2"/>
-      <c r="B40" s="8"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1291,7 +1287,7 @@
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="1:16" ht="16.5">
-      <c r="A41" s="2"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1309,8 +1305,8 @@
       <c r="P41" s="2"/>
     </row>
     <row r="42" spans="1:16" ht="16.5">
-      <c r="A42" s="5"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="7"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1327,8 +1323,8 @@
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="1:16" ht="16.5">
-      <c r="A43" s="2"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1345,8 +1341,8 @@
       <c r="P43" s="2"/>
     </row>
     <row r="44" spans="1:16" ht="16.5">
-      <c r="A44" s="5"/>
-      <c r="B44" s="8"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="7"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1363,8 +1359,8 @@
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="1:16" ht="16.5">
-      <c r="A45" s="2"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1381,8 +1377,8 @@
       <c r="P45" s="2"/>
     </row>
     <row r="46" spans="1:16" ht="16.5">
-      <c r="A46" s="5"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1399,8 +1395,8 @@
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="1:16" ht="16.5">
-      <c r="A47" s="2"/>
-      <c r="B47" s="8"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="3"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1417,8 +1413,8 @@
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="1:16" ht="16.5">
-      <c r="A48" s="5"/>
-      <c r="B48" s="4"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1435,7 +1431,7 @@
       <c r="P48" s="2"/>
     </row>
     <row r="49" spans="1:25" ht="16.5">
-      <c r="A49" s="11"/>
+      <c r="A49" s="7"/>
       <c r="B49" s="12"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1454,7 +1450,7 @@
     </row>
     <row r="50" spans="1:25" ht="16.5">
       <c r="A50" s="8"/>
-      <c r="B50" s="13"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1471,8 +1467,8 @@
       <c r="P50" s="2"/>
     </row>
     <row r="51" spans="1:25" ht="16.5">
-      <c r="A51" s="9"/>
-      <c r="B51" s="8"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="12"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -1490,7 +1486,7 @@
     </row>
     <row r="52" spans="1:25" ht="16.5">
       <c r="A52" s="8"/>
-      <c r="B52" s="13"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -1507,8 +1503,8 @@
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="1:25" ht="16.5">
-      <c r="A53" s="9"/>
-      <c r="B53" s="8"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -1526,7 +1522,7 @@
     </row>
     <row r="54" spans="1:25" ht="16.5">
       <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -1543,8 +1539,8 @@
       <c r="P54" s="2"/>
     </row>
     <row r="55" spans="1:25" ht="16.5">
-      <c r="A55" s="9"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -1595,6 +1591,15 @@
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
     </row>
     <row r="58" spans="1:25" ht="16.5">
       <c r="A58" s="2"/>
@@ -1629,7 +1634,9 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -1656,9 +1663,7 @@
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -1713,7 +1718,9 @@
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+      <c r="G62" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -1740,9 +1747,7 @@
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -5002,33 +5007,6 @@
       <c r="X183" s="2"/>
       <c r="Y183" s="2"/>
     </row>
-    <row r="184" spans="1:25" ht="16.5">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-      <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
-      <c r="H184" s="2"/>
-      <c r="I184" s="2"/>
-      <c r="J184" s="2"/>
-      <c r="K184" s="2"/>
-      <c r="L184" s="2"/>
-      <c r="M184" s="2"/>
-      <c r="N184" s="2"/>
-      <c r="O184" s="2"/>
-      <c r="P184" s="2"/>
-      <c r="Q184" s="2"/>
-      <c r="R184" s="2"/>
-      <c r="S184" s="2"/>
-      <c r="T184" s="2"/>
-      <c r="U184" s="2"/>
-      <c r="V184" s="2"/>
-      <c r="W184" s="2"/>
-      <c r="X184" s="2"/>
-      <c r="Y184" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I2"/>

--- a/QuanRadar/bin/测试链接.xlsx
+++ b/QuanRadar/bin/测试链接.xlsx
@@ -33,24 +33,25 @@
     <t>链接值</t>
   </si>
   <si>
-    <t>Franxx</t>
-  </si>
-  <si>
     <t>﻿</t>
   </si>
   <si>
     <t>h</t>
   </si>
   <si>
-    <t>2_o9GiTuCSz6w4uJRkPUvZeSNo-2_U</t>
+    <t>5_11fd0b112288bd69</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>101_2ea76d784d9278f4a550cb3f1059f397</t>
+    <t>有度</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>鱼骨</t>
+    <t>5_15ebf68f1b51961c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>云寻</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +514,7 @@
   <dimension ref="A1:Y183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -613,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1635,7 +1636,7 @@
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -1719,7 +1720,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
